--- a/stepoutplay/write_string/renumeration.xlsx
+++ b/stepoutplay/write_string/renumeration.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -571,6 +571,30 @@
         <v>45241</v>
       </c>
       <c r="F4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rajasthan United</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Churchill Brothers</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1108</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>45244</v>
+      </c>
+      <c r="F5" t="n">
         <v>500</v>
       </c>
     </row>
